--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{65B2AC4A-A32E-4F02-A1F3-D14EA06349BA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4150FD55-0E7C-416F-9EA8-81CC656D83B8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RMISingleMachine" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>INFO: void void</t>
   </si>
@@ -203,91 +203,184 @@
     <t>1|1|1|1|2|2|1|1|2|1|media 1.3</t>
   </si>
   <si>
-    <t>0|16|0|0|0|0|0|0|16|16|media 4.8</t>
-  </si>
-  <si>
-    <t>0|0|0|16|16|16|16|0|16|0|media 8.0</t>
-  </si>
-  <si>
-    <t>0|0|16|0|0|0|0|0|0|0|media 1.6</t>
-  </si>
-  <si>
-    <t>0|15|15|0|16|16|16|0|15|15|media 10.8</t>
-  </si>
-  <si>
-    <t>16|0|0|0|0|0|0|16|0|0|media 3.2</t>
-  </si>
-  <si>
-    <t>0|16|16|15|15|15|0|0|16|0|media 9.3</t>
-  </si>
-  <si>
-    <t>15|0|0|0|0|0|15|15|0|16|media 6.1</t>
-  </si>
-  <si>
-    <t>0|16|15|16|16|16|0|0|16|0|media 9.5</t>
-  </si>
-  <si>
-    <t>16|0|0|0|0|0|0|0|0|0|media 1.6</t>
-  </si>
-  <si>
-    <t>0|0|16|16|0|16|16|16|0|0|media 8.0</t>
-  </si>
-  <si>
-    <t>15|15|16|0|0|0|0|0|15|0|media 6.1</t>
-  </si>
-  <si>
-    <t>0|16|0|31|0|15|0|16|0|15|media 9.3</t>
-  </si>
-  <si>
-    <t>16|31|15|0|16|16|16|0|16|0|media 12.6</t>
-  </si>
-  <si>
-    <t>0|16|0|0|16|15|0|0|16|0|media 6.3</t>
-  </si>
-  <si>
-    <t>0|15|16|16|0|0|0|0|15|15|media 7.7</t>
-  </si>
-  <si>
-    <t>15|0|0|0|0|16|15|0|0|0|media 4.6</t>
-  </si>
-  <si>
-    <t>0|16|0|15|16|0|0|0|0|0|media 4.7</t>
-  </si>
-  <si>
-    <t>16|0|0|0|0|15|0|0|0|16|media 4.7</t>
-  </si>
-  <si>
-    <t>93|94|94|94|78|93|93|78|94|94|media 90.5</t>
-  </si>
-  <si>
-    <t>16|15|0|0|0|16|16|0|15|16|media 9.4</t>
-  </si>
-  <si>
-    <t>0|16|16|0|16|16|0|15|16|0|media 9.5</t>
-  </si>
-  <si>
-    <t>0|0|0|0|16|0|16|0|0|0|media 3.2</t>
-  </si>
-  <si>
-    <t>15|0|0|16|0|0|15|15|15|0|media 7.6</t>
-  </si>
-  <si>
-    <t>1282|1282|1250|1266|1250|1265|1297|1282|1251|1297|media 1272.2</t>
-  </si>
-  <si>
-    <t>15|16|0|0|0|0|0|0|15|16|media 6.2</t>
-  </si>
-  <si>
-    <t>0|0|0|0|0|0|0|0|0|0|media 0.0</t>
-  </si>
-  <si>
-    <t>16|15|16|0|0|0|0|15|0|15|media 7.7</t>
-  </si>
-  <si>
-    <t>15|0|0|0|0|16|15|16|0|0|media 6.2</t>
-  </si>
-  <si>
-    <t>0|16|16|0|16|16|16|0|16|15|media 11.1</t>
+    <t xml:space="preserve">INFO: void void </t>
+  </si>
+  <si>
+    <t>3|16|7|8|3|7|4|8|4|7|media 6.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int int </t>
+  </si>
+  <si>
+    <t>6|3|2|4|3|4|5|3|3|3|media 3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long long </t>
+  </si>
+  <si>
+    <t>3|5|3|4|3|3|6|4|4|3|media 3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string string1 </t>
+  </si>
+  <si>
+    <t>4|5|3|5|4|3|3|4|4|17|media 5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string string2 </t>
+  </si>
+  <si>
+    <t>4|3|3|4|6|4|5|31|4|7|media 7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string string4 </t>
+  </si>
+  <si>
+    <t>7|4|7|3|3|5|4|4|4|7|media 4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string string8 </t>
+  </si>
+  <si>
+    <t>4|3|4|3|3|4|6|7|5|5|media 4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string string16 </t>
+  </si>
+  <si>
+    <t>4|3|3|8|4|6|3|4|7|4|media 4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string string32 </t>
+  </si>
+  <si>
+    <t>3|3|8|6|12|4|4|9|4|12|media 6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string string64 </t>
+  </si>
+  <si>
+    <t>5|3|4|4|3|7|4|4|4|3|media 4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string string128 </t>
+  </si>
+  <si>
+    <t>5|4|5|8|3|28|3|3|8|4|media 7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string string256 </t>
+  </si>
+  <si>
+    <t>3|5|4|4|3|7|3|5|3|4|media 4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string string512 </t>
+  </si>
+  <si>
+    <t>7|5|3|4|3|4|6|3|24|5|media 6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string stringpot1024 </t>
+  </si>
+  <si>
+    <t>6|5|5|10|6|7|5|15|6|5|media 7.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int void </t>
+  </si>
+  <si>
+    <t>6|3|4|4|3|5|10|5|6|4|media 5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string void </t>
+  </si>
+  <si>
+    <t>4|4|3|3|4|3|4|7|6|4|media 4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long void </t>
+  </si>
+  <si>
+    <t>3|6|4|3|4|3|4|10|3|6|media 4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">big string / void </t>
+  </si>
+  <si>
+    <t>5|9|4|4|4|5|10|4|4|4|media 5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">super string / void </t>
+  </si>
+  <si>
+    <t>106|108|118|136|118|152|120|120|99|109|media 118.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void int </t>
+  </si>
+  <si>
+    <t>3|12|4|5|4|19|4|4|11|4|media 7.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void string </t>
+  </si>
+  <si>
+    <t>4|4|3|19|3|6|4|7|4|3|media 5.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void long </t>
+  </si>
+  <si>
+    <t>5|4|4|7|4|8|7|4|4|6|media 5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void / big string </t>
+  </si>
+  <si>
+    <t>6|9|7|5|5|10|5|5|5|6|media 6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void / super string </t>
+  </si>
+  <si>
+    <t>2004|2019|2021|2042|1949|1952|2079|1906|1970|2006|media 1994.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2xlong long </t>
+  </si>
+  <si>
+    <t>8|9|23|9|13|6|44|12|8|10|media 14.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4xlong long </t>
+  </si>
+  <si>
+    <t>4|4|4|12|4|5|5|4|8|6|media 5.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8xlong long </t>
+  </si>
+  <si>
+    <t>4|4|4|9|13|4|5|3|20|4|media 7.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long,string string </t>
+  </si>
+  <si>
+    <t>4|8|8|31|8|5|4|21|7|4|media 10.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long,long,string,string string </t>
+  </si>
+  <si>
+    <t>4|5|8|5|8|4|6|5|7|10|media 6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double,double,string localizacao </t>
+  </si>
+  <si>
+    <t>11|7|10|4|4|4|5|7|20|5|media 7.7</t>
   </si>
 </sst>
 </file>
@@ -340,72 +433,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD8694F-9FE7-41CB-B30E-FB5D677E111B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4895850" y="161925"/>
-          <a:ext cx="4305300" cy="1885950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -986,312 +1013,311 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC5C962-C912-4FFB-93FC-5E34937E2DCF}">
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4150FD55-0E7C-416F-9EA8-81CC656D83B8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6FD6E46C-EEF3-4888-8919-8EC4680A82EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RMISingleMachine" sheetId="1" r:id="rId1"/>
-    <sheet name="RMITwoMachines" sheetId="2" r:id="rId2"/>
+    <sheet name="gRPCSingleMachine" sheetId="3" r:id="rId1"/>
+    <sheet name="gRPCTwoMachines" sheetId="4" r:id="rId2"/>
+    <sheet name="RMISingleMachine" sheetId="1" r:id="rId3"/>
+    <sheet name="RMITwoMachines" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,187 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
-  <si>
-    <t>INFO: void void</t>
-  </si>
-  <si>
-    <t>int int</t>
-  </si>
-  <si>
-    <t>long long</t>
-  </si>
-  <si>
-    <t>string string1</t>
-  </si>
-  <si>
-    <t>string string2</t>
-  </si>
-  <si>
-    <t>string string4</t>
-  </si>
-  <si>
-    <t>string string8</t>
-  </si>
-  <si>
-    <t>string string16</t>
-  </si>
-  <si>
-    <t>string string32</t>
-  </si>
-  <si>
-    <t>string string64</t>
-  </si>
-  <si>
-    <t>string string128</t>
-  </si>
-  <si>
-    <t>string string256</t>
-  </si>
-  <si>
-    <t>string string512</t>
-  </si>
-  <si>
-    <t>string stringpot1024</t>
-  </si>
-  <si>
-    <t>int void</t>
-  </si>
-  <si>
-    <t>string void</t>
-  </si>
-  <si>
-    <t>long void</t>
-  </si>
-  <si>
-    <t>big string / void</t>
-  </si>
-  <si>
-    <t>super string / void</t>
-  </si>
-  <si>
-    <t>void int</t>
-  </si>
-  <si>
-    <t>void string</t>
-  </si>
-  <si>
-    <t>void long</t>
-  </si>
-  <si>
-    <t>void / big string</t>
-  </si>
-  <si>
-    <t>void / super string</t>
-  </si>
-  <si>
-    <t>2xlong long</t>
-  </si>
-  <si>
-    <t>4xlong long</t>
-  </si>
-  <si>
-    <t>8xlong long</t>
-  </si>
-  <si>
-    <t>long,string string</t>
-  </si>
-  <si>
-    <t>long,long,string,string string</t>
-  </si>
-  <si>
-    <t>double,double,string localizacao</t>
-  </si>
-  <si>
-    <t>1|2|1|0|0|0|1|1|1|0|media 0.7</t>
-  </si>
-  <si>
-    <t>1|1|1|1|1|2|0|0|0|1|media 0.8</t>
-  </si>
-  <si>
-    <t>2|1|1|1|1|1|1|1|0|0|media 0.9</t>
-  </si>
-  <si>
-    <t>1|1|1|1|1|1|1|1|0|1|media 0.9</t>
-  </si>
-  <si>
-    <t>1|1|1|1|0|1|1|0|0|1|media 0.7</t>
-  </si>
-  <si>
-    <t>2|1|1|0|1|1|1|1|1|1|media 1.0</t>
-  </si>
-  <si>
-    <t>1|0|1|1|1|0|1|1|1|1|media 0.8</t>
-  </si>
-  <si>
-    <t>1|0|1|1|1|1|1|1|1|2|media 1.0</t>
-  </si>
-  <si>
-    <t>1|0|1|1|0|1|0|1|1|1|media 0.7</t>
-  </si>
-  <si>
-    <t>0|0|1|0|1|1|1|1|1|0|media 0.6</t>
-  </si>
-  <si>
-    <t>0|1|1|1|0|1|1|1|0|1|media 0.7</t>
-  </si>
-  <si>
-    <t>1|0|1|1|1|1|1|1|1|1|media 0.9</t>
-  </si>
-  <si>
-    <t>1|1|1|1|1|1|2|1|1|3|media 1.3</t>
-  </si>
-  <si>
-    <t>1|2|2|1|2|2|2|2|2|3|media 1.9</t>
-  </si>
-  <si>
-    <t>0|0|1|1|1|1|1|0|1|1|media 0.7</t>
-  </si>
-  <si>
-    <t>1|1|1|1|1|1|0|0|1|1|media 0.8</t>
-  </si>
-  <si>
-    <t>1|1|0|0|1|0|0|1|1|1|media 0.6</t>
-  </si>
-  <si>
-    <t>1|1|0|1|1|1|1|0|1|1|media 0.8</t>
-  </si>
-  <si>
-    <t>9|5|4|4|4|5|4|5|4|4|media 4.8</t>
-  </si>
-  <si>
-    <t>1|1|1|1|1|1|1|1|1|1|media 1.0</t>
-  </si>
-  <si>
-    <t>1|1|1|1|1|0|1|1|1|0|media 0.8</t>
-  </si>
-  <si>
-    <t>1|1|1|1|1|0|1|0|1|1|media 0.8</t>
-  </si>
-  <si>
-    <t>2|1|2|1|1|2|2|2|4|2|media 1.9</t>
-  </si>
-  <si>
-    <t>1919|1845|1881|1846|1887|1853|1851|1864|1882|1848|media 1867.6</t>
-  </si>
-  <si>
-    <t>1|1|0|1|1|0|0|0|1|1|media 0.6</t>
-  </si>
-  <si>
-    <t>1|1|0|1|0|1|1|1|2|1|media 0.9</t>
-  </si>
-  <si>
-    <t>1|1|1|1|2|1|0|0|2|1|media 1.0</t>
-  </si>
-  <si>
-    <t>0|0|1|0|1|0|1|1|1|0|media 0.5</t>
-  </si>
-  <si>
-    <t>1|0|1|1|1|1|0|1|1|0|media 0.7</t>
-  </si>
-  <si>
-    <t>1|1|1|1|2|2|1|1|2|1|media 1.3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="150">
   <si>
     <t xml:space="preserve">INFO: void void </t>
   </si>
@@ -381,14 +203,292 @@
   </si>
   <si>
     <t>11|7|10|4|4|4|5|7|20|5|media 7.7</t>
+  </si>
+  <si>
+    <t>10 11 14 34 30 11 11 9 13 17 media 16.0</t>
+  </si>
+  <si>
+    <t>11 8 11 10 10 12 15 11 11 15 media 11.4</t>
+  </si>
+  <si>
+    <t>11 9 11 11 10 14 18 9 10 11 media 11.4</t>
+  </si>
+  <si>
+    <t>27 8 23 17 18 10 22 15 13 17 media 17.0</t>
+  </si>
+  <si>
+    <t>36 10 15 13 12 26 11 9 12 15 media 15.9</t>
+  </si>
+  <si>
+    <t>57 18 13 10 14 11 20 10 9 13 media 17.5</t>
+  </si>
+  <si>
+    <t>12 8 10 11 18 15 11 12 10 12 media 11.9</t>
+  </si>
+  <si>
+    <t>50 11 68 21 12 11 10 9 11 11 media 21.4</t>
+  </si>
+  <si>
+    <t>35 8 9 11 13 14 10 10 10 13 media 13.3</t>
+  </si>
+  <si>
+    <t>23 7 8 11 12 9 12 10 14 14 media 12.0</t>
+  </si>
+  <si>
+    <t>18 7 9 14 12 10 11 10 11 13 media 11.5</t>
+  </si>
+  <si>
+    <t>26 7 10 15 13 10 8 9 12 11 media 12.1</t>
+  </si>
+  <si>
+    <t>33 15 14 13 11 13 12 11 9 12 media 14.3</t>
+  </si>
+  <si>
+    <t>72 9 16 13 16 11 77 12 16 14 media 25.6</t>
+  </si>
+  <si>
+    <t>51 8 10 20 13 8 15 19 12 11 media 16.7</t>
+  </si>
+  <si>
+    <t>17 7 8 10 10 17 12 13 9 10 media 11.3</t>
+  </si>
+  <si>
+    <t>32 16 9 12 15 12 9 9 10 12 media 13.6</t>
+  </si>
+  <si>
+    <t>30 8 11 12 18 9 12 12 12 11 media 13.5</t>
+  </si>
+  <si>
+    <t>243 452 135 137 197 131 131 122 185 143 media 187.6</t>
+  </si>
+  <si>
+    <t>14 18 10 12 15 14 18 16 26 19 media 16.2</t>
+  </si>
+  <si>
+    <t>16 12 17 16 18 14 23 17 25 22 media 18.0</t>
+  </si>
+  <si>
+    <t>15 16 10 20 10 37 13 16 19 12 media 16.8</t>
+  </si>
+  <si>
+    <t>37 15 17 17 15 14 15 20 27 12 media 18.9</t>
+  </si>
+  <si>
+    <t>2017 1945 1938 1925 1918 1937 1947 1968 1933 1932 media 1946.0</t>
+  </si>
+  <si>
+    <t>12 14 14 15 21 14 17 21 23 31 media 18.2</t>
+  </si>
+  <si>
+    <t>17 10 20 15 13 23 17 14 28 25 media 18.2</t>
+  </si>
+  <si>
+    <t>9 12 15 10 15 13 11 14 17 16 media 13.2</t>
+  </si>
+  <si>
+    <t>9 9 17 13 12 12 11 14 18 16 media 13.1</t>
+  </si>
+  <si>
+    <t>33 10 15 11 20 11 12 14 13 13 media 15.2</t>
+  </si>
+  <si>
+    <t>10 10 14 13 10 14 10 10 11 16 media 11.8</t>
+  </si>
+  <si>
+    <t>0|1|1|0|1|0|0|0|0|0|media 0.3</t>
+  </si>
+  <si>
+    <t>0|1|0|0|1|0|0|0|0|1|media 0.3</t>
+  </si>
+  <si>
+    <t>1|0|1|0|0|1|1|0|1|0|media 0.5</t>
+  </si>
+  <si>
+    <t>1|0|0|1|1|0|0|1|0|0|media 0.4</t>
+  </si>
+  <si>
+    <t>0|0|0|0|0|1|0|0|1|0|media 0.2</t>
+  </si>
+  <si>
+    <t>0|0|0|1|0|0|1|1|0|1|media 0.4</t>
+  </si>
+  <si>
+    <t>0|1|0|0|0|0|0|0|0|0|media 0.1</t>
+  </si>
+  <si>
+    <t>2|0|0|1|1|1|0|1|1|0|media 0.7</t>
+  </si>
+  <si>
+    <t>1|1|0|0|0|0|0|0|0|0|media 0.2</t>
+  </si>
+  <si>
+    <t>0|0|0|2|0|0|0|0|0|0|media 0.2</t>
+  </si>
+  <si>
+    <t>0|1|1|1|0|0|0|0|0|0|media 0.3</t>
+  </si>
+  <si>
+    <t>0|0|0|1|1|1|0|0|1|0|media 0.4</t>
+  </si>
+  <si>
+    <t>1|0|0|1|1|5|0|1|1|1|media 1.1</t>
+  </si>
+  <si>
+    <t>1|1|1|3|1|1|1|1|1|2|media 1.3</t>
+  </si>
+  <si>
+    <t>0|0|1|0|0|0|0|3|0|1|media 0.5</t>
+  </si>
+  <si>
+    <t>0|1|0|0|1|1|0|1|0|1|media 0.5</t>
+  </si>
+  <si>
+    <t>0|0|1|0|0|0|0|1|1|1|media 0.4</t>
+  </si>
+  <si>
+    <t>1|0|0|1|1|1|0|1|1|1|media 0.7</t>
+  </si>
+  <si>
+    <t>9|2|2|2|2|2|2|2|2|2|media 2.7</t>
+  </si>
+  <si>
+    <t>1|1|0|1|0|1|1|0|0|1|media 0.6</t>
+  </si>
+  <si>
+    <t>0|1|1|0|0|0|0|1|1|0|media 0.4</t>
+  </si>
+  <si>
+    <t>1|1|1|3|0|0|1|0|0|2|media 0.9</t>
+  </si>
+  <si>
+    <t>1|1|1|1|2|1|1|1|1|1|media 1.1</t>
+  </si>
+  <si>
+    <t>1237|1190|1209|1212|1214|1187|1190|1165|1190|1216|media 1201.0</t>
+  </si>
+  <si>
+    <t>0|1|1|1|1|0|1|1|0|0|media 0.6</t>
+  </si>
+  <si>
+    <t>1|0|1|0|0|1|0|0|0|1|media 0.4</t>
+  </si>
+  <si>
+    <t>1|0|1|0|1|0|0|0|0|0|media 0.3</t>
+  </si>
+  <si>
+    <t>2|0|0|2|0|0|0|0|0|0|media 0.4</t>
+  </si>
+  <si>
+    <t>0|0|4|2|0|0|1|0|1|1|media 0.9</t>
+  </si>
+  <si>
+    <t>2|1|0|1|1|0|0|1|1|0|media 0.7</t>
+  </si>
+  <si>
+    <t>4 6 7 2 3 2 3 3 4 4 media 3.8</t>
+  </si>
+  <si>
+    <t>14 5 9 6 4 6 3 8 2 2 media 5.9</t>
+  </si>
+  <si>
+    <t>9 3 5 7 4 6 3 5 5 4 media 5.1</t>
+  </si>
+  <si>
+    <t>8 5 3 5 4 5 2 5 4 4 media 4.5</t>
+  </si>
+  <si>
+    <t>8 7 4 6 4 4 2 5 4 4 media 4.8</t>
+  </si>
+  <si>
+    <t>12 10 8 3 3 5 3 3 4 3 media 5.4</t>
+  </si>
+  <si>
+    <t>9 7 4 3 3 5 5 3 8 3 media 5.0</t>
+  </si>
+  <si>
+    <t>5 4 14 14 4 3 4 3 4 2 media 5.7</t>
+  </si>
+  <si>
+    <t>10 4 6 6 14 2 2 3 4 2 media 5.3</t>
+  </si>
+  <si>
+    <t>8 5 3 3 4 3 4 2 2 3 media 3.7</t>
+  </si>
+  <si>
+    <t>4 4 8 4 6 9 13 7 2 4 media 6.1</t>
+  </si>
+  <si>
+    <t>7 11 4 4 10 8 4 10 3 4 media 6.5</t>
+  </si>
+  <si>
+    <t>13 9 6 5 4 4 4 9 9 3 media 6.6</t>
+  </si>
+  <si>
+    <t>8 6 7 4 5 4 5 4 6 3 media 5.2</t>
+  </si>
+  <si>
+    <t>7 6 5 2 3 5 5 2 3 3 media 4.1</t>
+  </si>
+  <si>
+    <t>9 4 8 6 5 13 2 9 3 2 media 6.1</t>
+  </si>
+  <si>
+    <t>4 14 6 2 6 4 1 9 2 2 media 5.0</t>
+  </si>
+  <si>
+    <t>5 5 4 6 4 3 16 7 3 6 media 5.9</t>
+  </si>
+  <si>
+    <t>6 9 10 4 4 4 6 4 3 3 media 5.3</t>
+  </si>
+  <si>
+    <t>3 4 3 3 3 3 2 3 2 2 media 2.8</t>
+  </si>
+  <si>
+    <t>3 3 3 3 3 2 2 2 2 2 media 2.5</t>
+  </si>
+  <si>
+    <t>7 3 2 3 3 10 4 5 8 1 media 4.6</t>
+  </si>
+  <si>
+    <t>12 8 4 6 5 12 5 6 5 3 media 6.6</t>
+  </si>
+  <si>
+    <t>1253 1230 1236 1242 1211 1255 1250 1215 1231 1229 media 1235.2</t>
+  </si>
+  <si>
+    <t>6 3 3 3 5 2 3 4 2 2 media 3.3</t>
+  </si>
+  <si>
+    <t>6 4 3 2 9 3 6 6 2 3 media 4.4</t>
+  </si>
+  <si>
+    <t>4 4 3 4 2 2 3 4 3 2 media 3.1</t>
+  </si>
+  <si>
+    <t>5 5 6 6 2 6 3 2 2 2 media 3.9</t>
+  </si>
+  <si>
+    <t>4 3 6 3 5 7 4 2 2 6 media 4.2</t>
+  </si>
+  <si>
+    <t>4 4 3 3 3 4 4 3 3 3 media 3.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -416,8 +516,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,6 +534,138 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2764FE3-0FFE-48D9-9525-4CE5313DD612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4257675" y="0"/>
+          <a:ext cx="4305300" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28504087-E569-4486-B358-575B80369535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4276725" y="0"/>
+          <a:ext cx="4305300" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,6 +930,634 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F064FD08-6171-44D4-A5DD-9A27F4AEC159}">
+  <dimension ref="A1:A60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C020B8FA-759A-45DC-A674-98D58A4F104E}">
+  <dimension ref="A1:A60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A60"/>
   <sheetViews>
@@ -711,297 +1572,297 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1009,315 +1870,316 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC5C962-C912-4FFB-93FC-5E34937E2DCF}">
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6FD6E46C-EEF3-4888-8919-8EC4680A82EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A46D2242-D3F5-4614-ABB6-0056AA55A468}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="179">
   <si>
     <t xml:space="preserve">INFO: void void </t>
   </si>
@@ -295,184 +295,271 @@
     <t>10 10 14 13 10 14 10 10 11 16 media 11.8</t>
   </si>
   <si>
-    <t>0|1|1|0|1|0|0|0|0|0|media 0.3</t>
-  </si>
-  <si>
-    <t>0|1|0|0|1|0|0|0|0|1|media 0.3</t>
-  </si>
-  <si>
-    <t>1|0|1|0|0|1|1|0|1|0|media 0.5</t>
-  </si>
-  <si>
-    <t>1|0|0|1|1|0|0|1|0|0|media 0.4</t>
-  </si>
-  <si>
-    <t>0|0|0|0|0|1|0|0|1|0|media 0.2</t>
-  </si>
-  <si>
-    <t>0|0|0|1|0|0|1|1|0|1|media 0.4</t>
-  </si>
-  <si>
-    <t>0|1|0|0|0|0|0|0|0|0|media 0.1</t>
-  </si>
-  <si>
-    <t>2|0|0|1|1|1|0|1|1|0|media 0.7</t>
-  </si>
-  <si>
-    <t>1|1|0|0|0|0|0|0|0|0|media 0.2</t>
-  </si>
-  <si>
-    <t>0|0|0|2|0|0|0|0|0|0|media 0.2</t>
-  </si>
-  <si>
-    <t>0|1|1|1|0|0|0|0|0|0|media 0.3</t>
-  </si>
-  <si>
-    <t>0|0|0|1|1|1|0|0|1|0|media 0.4</t>
-  </si>
-  <si>
-    <t>1|0|0|1|1|5|0|1|1|1|media 1.1</t>
-  </si>
-  <si>
-    <t>1|1|1|3|1|1|1|1|1|2|media 1.3</t>
-  </si>
-  <si>
-    <t>0|0|1|0|0|0|0|3|0|1|media 0.5</t>
-  </si>
-  <si>
-    <t>0|1|0|0|1|1|0|1|0|1|media 0.5</t>
-  </si>
-  <si>
-    <t>0|0|1|0|0|0|0|1|1|1|media 0.4</t>
-  </si>
-  <si>
-    <t>1|0|0|1|1|1|0|1|1|1|media 0.7</t>
-  </si>
-  <si>
-    <t>9|2|2|2|2|2|2|2|2|2|media 2.7</t>
-  </si>
-  <si>
-    <t>1|1|0|1|0|1|1|0|0|1|media 0.6</t>
-  </si>
-  <si>
-    <t>0|1|1|0|0|0|0|1|1|0|media 0.4</t>
-  </si>
-  <si>
-    <t>1|1|1|3|0|0|1|0|0|2|media 0.9</t>
-  </si>
-  <si>
-    <t>1|1|1|1|2|1|1|1|1|1|media 1.1</t>
-  </si>
-  <si>
-    <t>1237|1190|1209|1212|1214|1187|1190|1165|1190|1216|media 1201.0</t>
-  </si>
-  <si>
-    <t>0|1|1|1|1|0|1|1|0|0|media 0.6</t>
-  </si>
-  <si>
-    <t>1|0|1|0|0|1|0|0|0|1|media 0.4</t>
-  </si>
-  <si>
-    <t>1|0|1|0|1|0|0|0|0|0|media 0.3</t>
-  </si>
-  <si>
-    <t>2|0|0|2|0|0|0|0|0|0|media 0.4</t>
-  </si>
-  <si>
-    <t>0|0|4|2|0|0|1|0|1|1|media 0.9</t>
-  </si>
-  <si>
-    <t>2|1|0|1|1|0|0|1|1|0|media 0.7</t>
-  </si>
-  <si>
-    <t>4 6 7 2 3 2 3 3 4 4 media 3.8</t>
-  </si>
-  <si>
-    <t>14 5 9 6 4 6 3 8 2 2 media 5.9</t>
-  </si>
-  <si>
-    <t>9 3 5 7 4 6 3 5 5 4 media 5.1</t>
-  </si>
-  <si>
-    <t>8 5 3 5 4 5 2 5 4 4 media 4.5</t>
-  </si>
-  <si>
-    <t>8 7 4 6 4 4 2 5 4 4 media 4.8</t>
-  </si>
-  <si>
-    <t>12 10 8 3 3 5 3 3 4 3 media 5.4</t>
-  </si>
-  <si>
-    <t>9 7 4 3 3 5 5 3 8 3 media 5.0</t>
-  </si>
-  <si>
-    <t>5 4 14 14 4 3 4 3 4 2 media 5.7</t>
-  </si>
-  <si>
-    <t>10 4 6 6 14 2 2 3 4 2 media 5.3</t>
-  </si>
-  <si>
-    <t>8 5 3 3 4 3 4 2 2 3 media 3.7</t>
-  </si>
-  <si>
-    <t>4 4 8 4 6 9 13 7 2 4 media 6.1</t>
-  </si>
-  <si>
-    <t>7 11 4 4 10 8 4 10 3 4 media 6.5</t>
-  </si>
-  <si>
-    <t>13 9 6 5 4 4 4 9 9 3 media 6.6</t>
-  </si>
-  <si>
-    <t>8 6 7 4 5 4 5 4 6 3 media 5.2</t>
-  </si>
-  <si>
-    <t>7 6 5 2 3 5 5 2 3 3 media 4.1</t>
-  </si>
-  <si>
-    <t>9 4 8 6 5 13 2 9 3 2 media 6.1</t>
-  </si>
-  <si>
-    <t>4 14 6 2 6 4 1 9 2 2 media 5.0</t>
-  </si>
-  <si>
-    <t>5 5 4 6 4 3 16 7 3 6 media 5.9</t>
-  </si>
-  <si>
-    <t>6 9 10 4 4 4 6 4 3 3 media 5.3</t>
-  </si>
-  <si>
-    <t>3 4 3 3 3 3 2 3 2 2 media 2.8</t>
-  </si>
-  <si>
-    <t>3 3 3 3 3 2 2 2 2 2 media 2.5</t>
-  </si>
-  <si>
-    <t>7 3 2 3 3 10 4 5 8 1 media 4.6</t>
-  </si>
-  <si>
-    <t>12 8 4 6 5 12 5 6 5 3 media 6.6</t>
-  </si>
-  <si>
-    <t>1253 1230 1236 1242 1211 1255 1250 1215 1231 1229 media 1235.2</t>
-  </si>
-  <si>
-    <t>6 3 3 3 5 2 3 4 2 2 media 3.3</t>
-  </si>
-  <si>
-    <t>6 4 3 2 9 3 6 6 2 3 media 4.4</t>
-  </si>
-  <si>
-    <t>4 4 3 4 2 2 3 4 3 2 media 3.1</t>
-  </si>
-  <si>
-    <t>5 5 6 6 2 6 3 2 2 2 media 3.9</t>
-  </si>
-  <si>
-    <t>4 3 6 3 5 7 4 2 2 6 media 4.2</t>
-  </si>
-  <si>
-    <t>4 4 3 3 3 4 4 3 3 3 media 3.4</t>
+    <t>INFO: void void</t>
+  </si>
+  <si>
+    <t>8|5|6|6|5|6|8|9|8|9|media 7.0</t>
+  </si>
+  <si>
+    <t>int int</t>
+  </si>
+  <si>
+    <t>6|6|6|5|6|6|7|7|7|11|media 6.7</t>
+  </si>
+  <si>
+    <t>long long</t>
+  </si>
+  <si>
+    <t>8|4|5|4|6|5|7|9|9|11|media 6.8</t>
+  </si>
+  <si>
+    <t>string string1</t>
+  </si>
+  <si>
+    <t>7|6|7|7|5|8|7|8|7|9|media 7.1</t>
+  </si>
+  <si>
+    <t>string string2</t>
+  </si>
+  <si>
+    <t>5|6|4|6|5|7|9|8|9|11|media 7.0</t>
+  </si>
+  <si>
+    <t>string string4</t>
+  </si>
+  <si>
+    <t>6|5|8|6|5|6|7|8|9|10|media 7.0</t>
+  </si>
+  <si>
+    <t>string string8</t>
+  </si>
+  <si>
+    <t>5|5|4|6|6|6|7|7|9|9|media 6.4</t>
+  </si>
+  <si>
+    <t>string string16</t>
+  </si>
+  <si>
+    <t>4|5|5|10|6|6|6|8|9|10|media 6.9</t>
+  </si>
+  <si>
+    <t>string string32</t>
+  </si>
+  <si>
+    <t>6|4|4|7|6|8|6|8|8|10|media 6.7</t>
+  </si>
+  <si>
+    <t>string string64</t>
+  </si>
+  <si>
+    <t>6|5|4|6|7|6|6|8|8|9|media 6.5</t>
+  </si>
+  <si>
+    <t>string string128</t>
+  </si>
+  <si>
+    <t>6|6|6|5|5|6|6|9|10|9|media 6.8</t>
+  </si>
+  <si>
+    <t>string string256</t>
+  </si>
+  <si>
+    <t>6|4|5|4|6|7|9|7|9|10|media 6.7</t>
+  </si>
+  <si>
+    <t>string string512</t>
+  </si>
+  <si>
+    <t>7|6|5|5|5|7|10|8|9|10|media 7.2</t>
+  </si>
+  <si>
+    <t>string stringpot1024</t>
+  </si>
+  <si>
+    <t>8|7|8|6|7|9|8|9|10|11|media 8.3</t>
+  </si>
+  <si>
+    <t>int void</t>
+  </si>
+  <si>
+    <t>5|6|5|8|5|7|9|9|8|9|media 7.1</t>
+  </si>
+  <si>
+    <t>string void</t>
+  </si>
+  <si>
+    <t>5|6|6|4|6|7|8|13|10|10|media 7.5</t>
+  </si>
+  <si>
+    <t>long void</t>
+  </si>
+  <si>
+    <t>5|6|5|7|6|6|8|11|9|10|media 7.3</t>
+  </si>
+  <si>
+    <t>big string / void</t>
+  </si>
+  <si>
+    <t>5|6|5|6|5|6|7|9|8|9|media 6.6</t>
+  </si>
+  <si>
+    <t>super string / void</t>
+  </si>
+  <si>
+    <t>14|7|7|6|6|7|8|10|9|13|media 8.7</t>
+  </si>
+  <si>
+    <t>void int</t>
+  </si>
+  <si>
+    <t>7|5|5|6|6|7|8|9|9|11|media 7.3</t>
+  </si>
+  <si>
+    <t>void string</t>
+  </si>
+  <si>
+    <t>13|7|5|5|9|6|10|8|8|13|media 8.4</t>
+  </si>
+  <si>
+    <t>void long</t>
+  </si>
+  <si>
+    <t>10|6|5|6|10|7|8|8|9|11|media 8.0</t>
+  </si>
+  <si>
+    <t>void / big string</t>
+  </si>
+  <si>
+    <t>10|9|10|7|8|9|9|10|11|13|media 9.6</t>
+  </si>
+  <si>
+    <t>void / super string</t>
+  </si>
+  <si>
+    <t>1939|1867|1866|1859|1860|1856|1871|1865|1860|1859|media 1870.2</t>
+  </si>
+  <si>
+    <t>2xlong long</t>
+  </si>
+  <si>
+    <t>5|5|6|5|5|8|8|9|8|10|media 6.9</t>
+  </si>
+  <si>
+    <t>4xlong long</t>
+  </si>
+  <si>
+    <t>5|6|6|5|6|7|8|8|9|10|media 7.0</t>
+  </si>
+  <si>
+    <t>8xlong long</t>
+  </si>
+  <si>
+    <t>6|5|5|6|6|7|7|9|8|10|media 6.9</t>
+  </si>
+  <si>
+    <t>long,string string</t>
+  </si>
+  <si>
+    <t>7|5|6|5|5|7|8|9|9|10|media 7.1</t>
+  </si>
+  <si>
+    <t>long,long,string,string string</t>
+  </si>
+  <si>
+    <t>5|4|6|5|6|7|8|8|10|10|media 6.9</t>
+  </si>
+  <si>
+    <t>double,double,string localizacao</t>
+  </si>
+  <si>
+    <t>5|5|5|5|6|7|7|9|10|12|media 7.1</t>
+  </si>
+  <si>
+    <t>2|1|0|1|0|0|1|1|0|1|media 0.7</t>
+  </si>
+  <si>
+    <t>1|1|1|1|1|1|1|1|0|1|media 0.9</t>
+  </si>
+  <si>
+    <t>0|1|1|1|1|0|1|0|0|0|media 0.5</t>
+  </si>
+  <si>
+    <t>1|1|2|0|1|1|1|1|1|1|media 1.0</t>
+  </si>
+  <si>
+    <t>2|1|1|0|1|1|1|1|1|1|media 1.0</t>
+  </si>
+  <si>
+    <t>1|1|1|1|0|1|0|2|1|1|media 0.9</t>
+  </si>
+  <si>
+    <t>1|1|1|0|1|1|1|2|1|0|media 0.9</t>
+  </si>
+  <si>
+    <t>2|1|1|1|0|0|1|1|0|0|media 0.7</t>
+  </si>
+  <si>
+    <t>2|0|1|1|1|1|1|1|0|1|media 0.9</t>
+  </si>
+  <si>
+    <t>1|0|1|1|1|1|1|1|1|1|media 0.9</t>
+  </si>
+  <si>
+    <t>0|1|1|0|1|1|1|1|0|1|media 0.7</t>
+  </si>
+  <si>
+    <t>1|1|0|1|1|0|1|1|0|1|media 0.7</t>
+  </si>
+  <si>
+    <t>1|1|1|1|1|1|1|1|2|1|media 1.1</t>
+  </si>
+  <si>
+    <t>1|2|1|2|1|1|1|1|1|2|media 1.3</t>
+  </si>
+  <si>
+    <t>1|1|1|1|1|0|0|1|1|1|media 0.8</t>
+  </si>
+  <si>
+    <t>1|0|1|1|1|1|0|1|1|1|media 0.8</t>
+  </si>
+  <si>
+    <t>1|1|1|1|1|0|1|1|0|0|media 0.7</t>
+  </si>
+  <si>
+    <t>1|1|1|1|0|0|1|1|1|0|media 0.7</t>
+  </si>
+  <si>
+    <t>12|6|5|5|4|4|5|5|10|5|media 6.1</t>
+  </si>
+  <si>
+    <t>1|2|1|0|1|1|1|1|1|1|media 1.0</t>
+  </si>
+  <si>
+    <t>1|1|1|1|0|1|0|1|0|1|media 0.7</t>
+  </si>
+  <si>
+    <t>1|1|1|0|1|1|0|0|0|1|media 0.6</t>
+  </si>
+  <si>
+    <t>2|4|1|1|2|1|2|2|2|1|media 1.8</t>
+  </si>
+  <si>
+    <t>1940|1866|1873|1862|1858|1879|1854|1855|1857|1854|media 1869.8</t>
+  </si>
+  <si>
+    <t>1|2|1|1|1|0|1|1|0|1|media 0.9</t>
+  </si>
+  <si>
+    <t>1|1|0|1|1|1|1|0|1|1|media 0.8</t>
+  </si>
+  <si>
+    <t>1|1|0|0|1|0|0|1|1|1|media 0.6</t>
+  </si>
+  <si>
+    <t>1|1|0|1|1|1|1|1|1|1|media 0.9</t>
+  </si>
+  <si>
+    <t>1|1|1|1|1|1|1|1|1|0|media 0.9</t>
   </si>
 </sst>
 </file>
@@ -488,7 +575,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -516,9 +603,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,305 +1025,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F064FD08-6171-44D4-A5DD-9A27F4AEC159}">
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
@@ -1567,302 +1668,302 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
